--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.51</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>22.89</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>22.89</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>43.11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>43.11</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>22.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>22.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1180,4 +1181,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2965</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1541,4 +1542,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1550,7 +1551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,17 +1562,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1581,14 +1602,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.18</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1597,14 +1640,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.08</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1613,14 +1678,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1629,13 +1716,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1911,7 +1912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1922,17 +1923,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1942,14 +1963,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1958,14 +2001,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.18</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1974,14 +2039,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.08</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1990,14 +2077,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.32</v>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2006,13 +2115,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2348,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2359,17 +2360,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2379,14 +2400,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.47</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2395,14 +2438,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2411,14 +2476,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.18</v>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2427,14 +2514,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.08</v>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2443,14 +2552,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
@@ -2459,13 +2706,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,243 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000619</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>61.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1699</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D3" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2023</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+      <c r="D7" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -703,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -754,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.93</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>98.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3139</t>
+          <t>0.3907</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -792,36 +694,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004953</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全恒益债券C</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.2704</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,7 +872,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -896,26 +912,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>44.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.41</t>
+          <t>99.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1092</t>
+          <t>1.3454</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -934,22 +950,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>98.75</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2706</t>
+          <t>0.3887</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -962,36 +978,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>98.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2484</t>
+          <t>0.3044</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1000,36 +1016,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>83.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1616</t>
+          <t>0.1212</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1038,36 +1054,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>93.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1389</t>
+          <t>0.1181</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1076,36 +1092,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1198</t>
+          <t>0.0679</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1124,26 +1140,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0563</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1152,34 +1168,112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>010677</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1308,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1244,36 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.14</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.54</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2965</t>
+          <t>0.2921</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1282,36 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.2847</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1320,36 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1982</t>
+          <t>0.1506</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1358,36 +1452,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1627</t>
+          <t>0.1275</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1396,36 +1490,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.0724</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1434,36 +1528,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>516560</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>华宝养老ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>97.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1472,36 +1566,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0162</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1510,36 +1604,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>165522</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1668,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1604,36 +1698,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>512980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>广发中证传媒ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>46.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.83</t>
+          <t>99.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2921</t>
+          <t>1.2965</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1642,36 +1736,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2847</t>
+          <t>0.2376</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1680,36 +1774,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数A</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1506</t>
+          <t>0.1982</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1718,36 +1812,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>98.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1275</t>
+          <t>0.1627</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1756,36 +1850,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0724</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1794,36 +1888,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>516560</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝养老ETF</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.35</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0451</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1832,36 +1926,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002982</t>
+          <t>164818</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证养老产业指数C</t>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0162</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1870,36 +1964,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>165522</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1934,7 +2028,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1974,26 +2068,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.11</t>
+          <t>35.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>99.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3454</t>
+          <t>1.1092</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2012,22 +2106,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.75</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3887</t>
+          <t>0.2706</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2040,36 +2134,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.91</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3044</t>
+          <t>0.2484</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2078,36 +2172,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001628</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商体育文化休闲股票</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.21</t>
+          <t>98.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1212</t>
+          <t>0.1616</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2116,36 +2210,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.75</t>
+          <t>98.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1181</t>
+          <t>0.1389</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2154,36 +2248,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0679</t>
+          <t>0.1198</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2202,26 +2296,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0563</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2230,112 +2324,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159805</t>
+          <t>010677</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华中证传媒ETF</t>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>96.29</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0514</t>
-        </is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2349,7 +2365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2370,7 +2386,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2400,36 +2416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>004952</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>兴全恒益债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>36.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3907</t>
+          <t>0.3139</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2438,150 +2454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>004953</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>兴全恒益债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2704</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>96.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0702</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013278</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2595,144 +2497,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.83</v>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.47</v>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.18</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.44</v>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.47</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.32</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.44</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1274,366 +1575,6 @@
       </c>
       <c r="H11" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159869</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2921</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2847</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000968</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1506</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1275</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>516560</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝养老ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002982</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1698,36 +1639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.14</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.54</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2965</t>
+          <t>0.2921</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1736,36 +1677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.2847</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1774,36 +1715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1982</t>
+          <t>0.1506</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1812,36 +1753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1627</t>
+          <t>0.1275</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1850,36 +1791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.0724</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1888,36 +1829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>516560</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>华宝养老ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>97.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1926,36 +1867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0162</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1964,36 +1905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>165522</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2068,26 +2009,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>46.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.41</t>
+          <t>99.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1092</t>
+          <t>1.2965</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2096,36 +2037,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2706</t>
+          <t>0.2376</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2134,36 +2075,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2484</t>
+          <t>0.1982</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2182,26 +2123,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>98.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1616</t>
+          <t>0.1627</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2210,36 +2151,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1389</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2248,36 +2189,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1198</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2296,26 +2237,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2334,24 +2275,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2360,6 +2303,364 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2491,7 +2792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002558-巨人网络.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.47</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.44</v>
       </c>
     </row>
@@ -616,7 +633,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1146,7 +1769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1575,366 +2198,6 @@
       </c>
       <c r="H11" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159869</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2921</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2847</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000968</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.99</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1506</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1275</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>516560</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝养老ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002982</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发中证养老产业指数C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +2232,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1999,36 +2262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512980</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.14</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.54</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2965</t>
+          <t>0.2921</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2037,36 +2300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>516010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>国泰中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.2847</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2075,36 +2338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>000968</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>广发中证养老产业指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1982</t>
+          <t>0.1506</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2113,36 +2376,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>94.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1627</t>
+          <t>0.1275</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2151,36 +2414,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>96.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.0724</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2189,36 +2452,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>516560</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>华宝养老ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>97.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.0451</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2227,36 +2490,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164818</t>
+          <t>002982</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
+          <t>广发中证养老产业指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>94.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0162</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2265,36 +2528,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010677</t>
+          <t>165522</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2369,26 +2632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>46.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.41</t>
+          <t>99.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1092</t>
+          <t>1.2965</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2397,36 +2660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>160629</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>鹏华中证传媒指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.62</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2706</t>
+          <t>0.2376</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2435,36 +2698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160629</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证传媒指数（LOF）</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.28</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2484</t>
+          <t>0.1982</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2483,26 +2746,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>98.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1616</t>
+          <t>0.1627</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2511,36 +2774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>516770</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1389</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2549,36 +2812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>516770</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1198</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2597,26 +2860,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0292</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2635,24 +2898,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2661,6 +2926,364 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2790,250 +3413,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000619</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>61.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.1699</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004952</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全恒益债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2023</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>